--- a/14bishard.xlsx
+++ b/14bishard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\AoC2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0347DE-BD43-4B02-BBCD-9B176DCF1DF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2DEC06-ADEF-45AF-BC4C-E38370F613FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18330" yWindow="2100" windowWidth="21600" windowHeight="15435" xr2:uid="{5919126E-F6B3-4973-A050-8D361516151E}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5919126E-F6B3-4973-A050-8D361516151E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0948A16-E2D6-4299-9783-3B0256BC0C28}">
   <dimension ref="B5:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +401,7 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,6 +439,13 @@
       <c r="M5">
         <v>30000</v>
       </c>
+      <c r="N5">
+        <v>100000</v>
+      </c>
+      <c r="O5">
+        <f>N6</f>
+        <v>16061289364</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6">
@@ -469,10 +477,18 @@
       </c>
       <c r="L6">
         <f>SUM(L8*L5)</f>
-        <v>3212220000</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1606133794</v>
+        <f>SUM(M8*M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>16061289364</v>
+      </c>
+      <c r="O6">
+        <f>O13-O5</f>
+        <v>983938710636</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -512,33 +528,41 @@
         <v>160614.21340000001</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f>SUM(K6/K5)</f>
         <v>160613.37940000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="L7:N7" si="2">SUM(N6/N5)</f>
+        <v>160612.89363999999</v>
+      </c>
+      <c r="O7">
+        <f>O6/N8+N5</f>
+        <v>6226146.144060568</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f t="shared" ref="D8:I8" si="2">ROUND(D7,0)</f>
+        <f t="shared" ref="D8:I8" si="3">ROUND(D7,0)</f>
         <v>160931</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160628</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160619</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160616</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160614</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160614</v>
       </c>
       <c r="J8">
@@ -550,10 +574,20 @@
         <v>160613</v>
       </c>
       <c r="L8">
-        <v>160611</v>
+        <f t="shared" ref="L8:N8" si="4">ROUND(L7,0)</f>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>160610</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>ROUND(N7,0)</f>
+        <v>160613</v>
+      </c>
+      <c r="O8">
+        <f>O6/N7+N5</f>
+        <v>6226150.2008762388</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -562,19 +596,19 @@
         <v>302.9539999999979</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:J9" si="3">SUM(E7-F7)</f>
+        <f t="shared" ref="E9:H9" si="5">SUM(E7-F7)</f>
         <v>8.9799999999813735</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2490000000107102</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1739999999990687</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30874999999650754</v>
       </c>
       <c r="I9">
@@ -586,8 +620,19 @@
         <v>0.83400000000256114</v>
       </c>
       <c r="K9">
-        <f>SUM(K7-L7)</f>
+        <f t="shared" ref="K9:L9" si="6">SUM(K7-L7)</f>
         <v>160613.37940000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>160612</v>
+      </c>
+      <c r="O9">
+        <f>O6/N9+N5</f>
+        <v>6226184.2865788359</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -597,23 +642,23 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D13">
-        <f t="shared" ref="D13:H13" si="4">$O13/D7</f>
+        <f t="shared" ref="D13:H13" si="7">$O13/D7</f>
         <v>6213853.2389772153</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6225572.9528638339</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6225921.0169947343</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6226046.9575808272</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6226092.4664511522</v>
       </c>
       <c r="I13">
@@ -629,11 +674,11 @@
         <v>6226131.3704728633</v>
       </c>
       <c r="L13" t="e">
-        <f t="shared" ref="L13:M13" si="5">$O13/L7</f>
+        <f t="shared" ref="L13:M13" si="8">$O13/L7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O13">
@@ -642,27 +687,27 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D14">
-        <f t="shared" ref="D14:I14" si="6">$O13/D8</f>
+        <f t="shared" ref="D14:I14" si="9">$O13/D8</f>
         <v>6213843.199880694</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6225564.658714545</v>
       </c>
       <c r="F14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6225913.4971578708</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6226029.785326493</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6226107.3131856499</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6226107.3131856499</v>
       </c>
       <c r="J14">
@@ -673,19 +718,19 @@
         <f>$O13/K8</f>
         <v>6226146.0778392786</v>
       </c>
-      <c r="L14">
-        <f t="shared" ref="L14:M14" si="7">$O13/L8</f>
-        <v>6226223.6085946793</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="7"/>
-        <v>6226262.3746964699</v>
+      <c r="L14" t="e">
+        <f t="shared" ref="L14:M14" si="10">$O13/L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O15">
-        <f>SUM(O13)-(L6*311)</f>
-        <v>999580000</v>
+        <f>SUM(O13)-(N6*62)</f>
+        <v>4200059432</v>
       </c>
     </row>
   </sheetData>

--- a/14bishard.xlsx
+++ b/14bishard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\AoC2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2DEC06-ADEF-45AF-BC4C-E38370F613FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168652CA-8782-4BD9-AAD4-3A2ABC7977A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5919126E-F6B3-4973-A050-8D361516151E}"/>
+    <workbookView xWindow="14595" yWindow="2355" windowWidth="28695" windowHeight="15435" xr2:uid="{5919126E-F6B3-4973-A050-8D361516151E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0948A16-E2D6-4299-9783-3B0256BC0C28}">
-  <dimension ref="B5:O15"/>
+  <dimension ref="B4:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,12 +401,28 @@
     <col min="6" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -436,18 +453,24 @@
       <c r="L5">
         <v>20000</v>
       </c>
-      <c r="M5">
-        <v>30000</v>
-      </c>
-      <c r="N5">
-        <v>100000</v>
-      </c>
-      <c r="O5">
-        <f>N6</f>
-        <v>16061289364</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>6226085</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6226300</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6227000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6228000</v>
+      </c>
+      <c r="R5">
+        <f>SUM(Q5/2)</f>
+        <v>3114000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>178154</v>
       </c>
@@ -479,19 +502,24 @@
         <f>SUM(L8*L5)</f>
         <v>0</v>
       </c>
-      <c r="M6">
-        <f>SUM(M8*M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>16061289364</v>
-      </c>
-      <c r="O6">
-        <f>O13-O5</f>
-        <v>983938710636</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>1000000038287</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1000007653400</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1000053468000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1000136766000</v>
+      </c>
+      <c r="R6">
+        <f>SUM(Q6/2)</f>
+        <v>500068383000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -500,7 +528,7 @@
         <v>178154</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:K7" si="0">SUM(D6/D5)</f>
+        <f t="shared" ref="D7:J7" si="0">SUM(D6/D5)</f>
         <v>160930.74</v>
       </c>
       <c r="E7">
@@ -531,38 +559,50 @@
         <f>SUM(K6/K5)</f>
         <v>160613.37940000001</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="L7:N7" si="2">SUM(N6/N5)</f>
-        <v>160612.89363999999</v>
-      </c>
-      <c r="O7">
-        <f>O6/N8+N5</f>
-        <v>6226146.144060568</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <f>SUM(N6/N5)</f>
+        <v>160614.58176157248</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(O6/O5)</f>
+        <v>160610.25864478102</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(P6/P5)</f>
+        <v>160599.56126545687</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUM(Q6/Q5)</f>
+        <v>160587.1493256262</v>
+      </c>
+      <c r="R7">
+        <f>R6/Q8+Q5</f>
+        <v>9342002.8956266697</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f t="shared" ref="D8:I8" si="3">ROUND(D7,0)</f>
+        <f t="shared" ref="D8:I8" si="2">ROUND(D7,0)</f>
         <v>160931</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160628</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160619</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160616</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160614</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160614</v>
       </c>
       <c r="J8">
@@ -574,41 +614,49 @@
         <v>160613</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:N8" si="4">ROUND(L7,0)</f>
+        <f t="shared" ref="L8" si="3">ROUND(L7,0)</f>
         <v>0</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <f>ROUND(N7,0)</f>
-        <v>160613</v>
-      </c>
-      <c r="O8">
-        <f>O6/N7+N5</f>
-        <v>6226150.2008762388</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>160615</v>
+      </c>
+      <c r="O8" s="1">
+        <f>ROUND(O7,0)</f>
+        <v>160610</v>
+      </c>
+      <c r="P8" s="1">
+        <f>ROUND(P7,0)</f>
+        <v>160600</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>ROUND(Q7,0)</f>
+        <v>160587</v>
+      </c>
+      <c r="R8">
+        <f>R6/Q7+Q5</f>
+        <v>9342000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D9">
         <f>SUM(D7-E7)</f>
         <v>302.9539999999979</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:H9" si="5">SUM(E7-F7)</f>
+        <f t="shared" ref="E9:H9" si="4">SUM(E7-F7)</f>
         <v>8.9799999999813735</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2490000000107102</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1739999999990687</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.30874999999650754</v>
       </c>
       <c r="I9">
@@ -620,118 +668,248 @@
         <v>0.83400000000256114</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:L9" si="6">SUM(K7-L7)</f>
+        <f>SUM(K7-L7)</f>
         <v>160613.37940000001</v>
       </c>
       <c r="L9">
+        <f>SUM(L7-P7)</f>
+        <v>-160599.56126545687</v>
+      </c>
+      <c r="N9" s="1">
+        <v>160610</v>
+      </c>
+      <c r="O9" s="1">
+        <v>160610</v>
+      </c>
+      <c r="P9" s="1">
+        <v>160611</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>160612</v>
+      </c>
+      <c r="R9">
+        <f>R6/Q9+Q5</f>
+        <v>9341518.1866859272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>$R13/D7</f>
+        <v>6213853.2389772153</v>
+      </c>
+      <c r="E13">
+        <f>$R13/E7</f>
+        <v>6225572.9528638339</v>
+      </c>
+      <c r="F13">
+        <f>$R13/F7</f>
+        <v>6225921.0169947343</v>
+      </c>
+      <c r="G13">
+        <f>$R13/G7</f>
+        <v>6226046.9575808272</v>
+      </c>
+      <c r="H13">
+        <f>$R13/H7</f>
+        <v>6226092.4664511522</v>
+      </c>
+      <c r="I13">
+        <f>$R13/I7</f>
+        <v>6226104.434929369</v>
+      </c>
+      <c r="J13">
+        <f>$R13/J7</f>
+        <v>6226099.0408710614</v>
+      </c>
+      <c r="K13">
+        <f>$R13/K7</f>
+        <v>6226131.3704728633</v>
+      </c>
+      <c r="L13" t="e">
+        <f>$R13/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="1">
+        <f>SUM(N6)-(N7*1)</f>
+        <v>999999877672.41821</v>
+      </c>
+      <c r="O13" s="1">
+        <f>SUM(O6)-(O7*47)</f>
+        <v>1000000104717.8438</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(P6)-(P7*332)</f>
+        <v>1000000148945.6599</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>SUM(Q6)-(Q7*851)</f>
+        <v>1000000106335.924</v>
+      </c>
+      <c r="R13">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>$R13/D8</f>
+        <v>6213843.199880694</v>
+      </c>
+      <c r="E14">
+        <f>$R13/E8</f>
+        <v>6225564.658714545</v>
+      </c>
+      <c r="F14">
+        <f>$R13/F8</f>
+        <v>6225913.4971578708</v>
+      </c>
+      <c r="G14">
+        <f>$R13/G8</f>
+        <v>6226029.785326493</v>
+      </c>
+      <c r="H14">
+        <f>$R13/H8</f>
+        <v>6226107.3131856499</v>
+      </c>
+      <c r="I14">
+        <f>$R13/I8</f>
+        <v>6226107.3131856499</v>
+      </c>
+      <c r="J14">
+        <f>$R13/J8</f>
+        <v>6226107.3131856499</v>
+      </c>
+      <c r="K14">
+        <f>$R13/K8</f>
+        <v>6226146.0778392786</v>
+      </c>
+      <c r="L14" t="e">
+        <f>$R13/L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" ref="N14" si="5">$R13/N8</f>
+        <v>6226068.5490147248</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14:P14" si="6">$R13/O8</f>
+        <v>6226262.3746964699</v>
+      </c>
+      <c r="P14" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>160612</v>
-      </c>
-      <c r="O9">
-        <f>O6/N9+N5</f>
-        <v>6226184.2865788359</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <f t="shared" ref="D13:H13" si="7">$O13/D7</f>
-        <v>6213853.2389772153</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="7"/>
-        <v>6225572.9528638339</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="7"/>
-        <v>6225921.0169947343</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="7"/>
-        <v>6226046.9575808272</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
-        <v>6226092.4664511522</v>
-      </c>
-      <c r="I13">
-        <f>$O13/I7</f>
-        <v>6226104.434929369</v>
-      </c>
-      <c r="J13">
-        <f>$O13/J7</f>
-        <v>6226099.0408710614</v>
-      </c>
-      <c r="K13">
-        <f>$O13/K7</f>
-        <v>6226131.3704728633</v>
-      </c>
-      <c r="L13" t="e">
-        <f t="shared" ref="L13:M13" si="8">$O13/L7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <f t="shared" ref="D14:I14" si="9">$O13/D8</f>
-        <v>6213843.199880694</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="9"/>
-        <v>6225564.658714545</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="9"/>
-        <v>6225913.4971578708</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="9"/>
-        <v>6226029.785326493</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="9"/>
-        <v>6226107.3131856499</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="9"/>
-        <v>6226107.3131856499</v>
-      </c>
-      <c r="J14">
-        <f>$O13/J8</f>
-        <v>6226107.3131856499</v>
-      </c>
-      <c r="K14">
-        <f>$O13/K8</f>
-        <v>6226146.0778392786</v>
-      </c>
-      <c r="L14" t="e">
-        <f t="shared" ref="L14:M14" si="10">$O13/L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O15">
-        <f>SUM(O13)-(N6*62)</f>
-        <v>4200059432</v>
-      </c>
+        <v>6226650.0622665007</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <f>SUM(N5-1)</f>
+        <v>6226084</v>
+      </c>
+      <c r="O15" s="1">
+        <f>SUM(O5-48)</f>
+        <v>6226252</v>
+      </c>
+      <c r="P15" s="1">
+        <f>SUM(P5-332)</f>
+        <v>6226668</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>SUM(Q5-851)</f>
+        <v>6227149</v>
+      </c>
+      <c r="R15">
+        <f>SUM(R13)-(Q6*62)</f>
+        <v>-61008479492000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <f>SUM(N4/N7)</f>
+        <v>6226084.7616218925</v>
+      </c>
+      <c r="O16" s="1">
+        <f>SUM(O4/O7)</f>
+        <v>6226252.3480002796</v>
+      </c>
+      <c r="P16" s="1">
+        <f>SUM(P4/P7)</f>
+        <v>6226667.0725649642</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>SUM(Q4/Q7)</f>
+        <v>6227148.337830428</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
